--- a/storage/template/user-importing-template.xlsx
+++ b/storage/template/user-importing-template.xlsx
@@ -208,6 +208,7 @@
     <col customWidth="1" min="3" max="3" width="22.57"/>
     <col customWidth="1" min="4" max="4" width="34.57"/>
     <col customWidth="1" min="5" max="5" width="25.14"/>
+    <col customWidth="1" min="8" max="8" width="16.86"/>
   </cols>
   <sheetData>
     <row r="1">
